--- a/Users Loads16.xlsx
+++ b/Users Loads16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.246709529132854</v>
+        <v>0.5520055958676888</v>
       </c>
       <c r="C2" t="n">
-        <v>5.477673280663374</v>
+        <v>7.456712159883656</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3839482468281748</v>
+        <v>0.630815427435628</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.439547511154517</v>
+        <v>1.529003317215714</v>
       </c>
       <c r="C3" t="n">
-        <v>3.355416624633085</v>
+        <v>6.993709231954493</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3321030588288222</v>
+        <v>0.5932092276256263</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.795974022676456</v>
+        <v>2.806415998886871</v>
       </c>
       <c r="C4" t="n">
-        <v>4.811858220567824</v>
+        <v>4.550745007401177</v>
       </c>
       <c r="D4" t="n">
-        <v>0.37545369325244</v>
+        <v>0.3446298390482985</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.208917224577267</v>
+        <v>3.088822840973728</v>
       </c>
       <c r="C5" t="n">
-        <v>4.714255657094713</v>
+        <v>8.829843762265867</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2548808172132156</v>
+        <v>0.5025077914174758</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.471217743626223</v>
+        <v>5.354586240738302</v>
       </c>
       <c r="C6" t="n">
-        <v>3.632460421087905</v>
+        <v>4.383563488021912</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1895690069004638</v>
+        <v>0.4871749539679492</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.54828255431501</v>
+        <v>6.447604160660143</v>
       </c>
       <c r="C7" t="n">
-        <v>3.751448189917045</v>
+        <v>2.674706966612216</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2728561998207004</v>
+        <v>0.3347607981322681</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.80463717260071</v>
+        <v>6.77780262091801</v>
       </c>
       <c r="C8" t="n">
-        <v>3.053684658012228</v>
+        <v>2.562529901237825</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2485770827354553</v>
+        <v>0.2860092982698995</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.67189282830499</v>
+        <v>6.850577864769429</v>
       </c>
       <c r="C9" t="n">
-        <v>9.253294429033728</v>
+        <v>4.8755504381315</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3860453720599025</v>
+        <v>0.8272331001450209</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.80651174033863</v>
+        <v>7.218474110226925</v>
       </c>
       <c r="C10" t="n">
-        <v>6.285064430536736</v>
+        <v>6.335385122369471</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09661965854962953</v>
+        <v>0.4680818590937341</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.20199893663455</v>
+        <v>7.660797315583311</v>
       </c>
       <c r="C11" t="n">
-        <v>3.106860709174744</v>
+        <v>3.414679107069724</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2705306125648932</v>
+        <v>0.4133327348899845</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.94339371508215</v>
+        <v>10.64360685248097</v>
       </c>
       <c r="C12" t="n">
-        <v>6.712247945284631</v>
+        <v>7.395326987564623</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5313733200715378</v>
+        <v>0.4824865444029217</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16.10231572873036</v>
+        <v>12.42132274825905</v>
       </c>
       <c r="C13" t="n">
-        <v>5.88898860961126</v>
+        <v>4.436952232130229</v>
       </c>
       <c r="D13" t="n">
-        <v>0.461755366066123</v>
+        <v>0.3834920061373053</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16.85981674963907</v>
+        <v>13.46863987586207</v>
       </c>
       <c r="C14" t="n">
-        <v>4.422881128991138</v>
+        <v>4.312380270511887</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4455501365694833</v>
+        <v>0.6009280333151326</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17.54082314159076</v>
+        <v>15.67551034550826</v>
       </c>
       <c r="C15" t="n">
-        <v>7.945339075493093</v>
+        <v>2.876710794586397</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3236344465740538</v>
+        <v>0.4521522995427405</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19.18325934335391</v>
+        <v>16.47357041818529</v>
       </c>
       <c r="C16" t="n">
-        <v>4.971001265089271</v>
+        <v>1.321099829281096</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3191014410049108</v>
+        <v>0.1795779920549424</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20.71303594591329</v>
+        <v>18.95607699594084</v>
       </c>
       <c r="C17" t="n">
-        <v>6.738391509703288</v>
+        <v>7.930374260151479</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5021028689584878</v>
+        <v>0.6337808690348343</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>32.31948063780711</v>
+        <v>20.89317459886447</v>
       </c>
       <c r="C18" t="n">
-        <v>7.457252959467231</v>
+        <v>2.565235453999529</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2923788855337496</v>
+        <v>0.2515505572437173</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>33.09752575041694</v>
+        <v>21.09840681968731</v>
       </c>
       <c r="C19" t="n">
-        <v>4.665200264322875</v>
+        <v>4.25655825314167</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3403179426170005</v>
+        <v>0.3010546989728326</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>33.38575308351093</v>
+        <v>25.30680571927003</v>
       </c>
       <c r="C20" t="n">
-        <v>10.93543112211839</v>
+        <v>4.368743629561925</v>
       </c>
       <c r="D20" t="n">
-        <v>0.269613238743619</v>
+        <v>0.6288879214942688</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>34.18153606700263</v>
+        <v>26.16524394627741</v>
       </c>
       <c r="C21" t="n">
-        <v>6.512345501038117</v>
+        <v>3.585656057004245</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2916625107303151</v>
+        <v>0.5916584004188435</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>35.99829032593615</v>
+        <v>26.3811607436705</v>
       </c>
       <c r="C22" t="n">
-        <v>4.419613272226907</v>
+        <v>3.921779212430995</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1330351582727458</v>
+        <v>0.4663696702334351</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>37.00760626165517</v>
+        <v>33.10898143613653</v>
       </c>
       <c r="C23" t="n">
-        <v>4.217573002928545</v>
+        <v>5.22309853976534</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3120801726811677</v>
+        <v>0.2367969411308504</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>37.34876725212099</v>
+        <v>34.4607725385481</v>
       </c>
       <c r="C24" t="n">
-        <v>6.900305848132724</v>
+        <v>3.578481134717975</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1892977824961267</v>
+        <v>0.3448723589882984</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>37.86563261151981</v>
+        <v>36.24780611978512</v>
       </c>
       <c r="C25" t="n">
-        <v>12.14826624131385</v>
+        <v>3.676351811910774</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1698321591456001</v>
+        <v>0.4537934267754338</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>38.60613603745824</v>
+        <v>37.18140980391463</v>
       </c>
       <c r="C26" t="n">
-        <v>3.421917875679573</v>
+        <v>3.042433037719632</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3113839209128159</v>
+        <v>0.247805941979705</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>44.90312592328956</v>
+        <v>38.99508142126555</v>
       </c>
       <c r="C27" t="n">
-        <v>6.730189681454263</v>
+        <v>6.516189257080084</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5071801725815382</v>
+        <v>0.3010958393371924</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>48.16849563347326</v>
+        <v>39.54769663529568</v>
       </c>
       <c r="C28" t="n">
-        <v>4.24067095945131</v>
+        <v>6.781946532068721</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1346669073408123</v>
+        <v>0.6470481662673447</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>49.90733797587168</v>
+        <v>39.55121359874423</v>
       </c>
       <c r="C29" t="n">
-        <v>8.33029040648627</v>
+        <v>3.306607903235394</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3174350819030001</v>
+        <v>0.4293313467907782</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>52.5869458463911</v>
+        <v>39.8101834115626</v>
       </c>
       <c r="C30" t="n">
-        <v>10.49718345392722</v>
+        <v>6.753064993601121</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3169720408856457</v>
+        <v>0.7063965314361182</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>55.65492071641579</v>
+        <v>40.04983599306401</v>
       </c>
       <c r="C31" t="n">
-        <v>9.031107144201311</v>
+        <v>2.938168133706037</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2619375640008127</v>
+        <v>0.4541418681362107</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>55.84795233664713</v>
+        <v>40.34907288398516</v>
       </c>
       <c r="C32" t="n">
-        <v>3.816773084204586</v>
+        <v>3.339458623601474</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1344522018770012</v>
+        <v>0.3130155285277615</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>55.86865419930932</v>
+        <v>41.34062858174761</v>
       </c>
       <c r="C33" t="n">
-        <v>7.069800500129494</v>
+        <v>4.610220271458755</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2719033462993501</v>
+        <v>0.5311268357233145</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>57.34853832041306</v>
+        <v>44.22973943203641</v>
       </c>
       <c r="C34" t="n">
-        <v>4.69200241460144</v>
+        <v>5.884998036996139</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3481384655803841</v>
+        <v>0.8343037225370524</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>58.42474748369923</v>
+        <v>44.30724434226106</v>
       </c>
       <c r="C35" t="n">
-        <v>4.402101293798304</v>
+        <v>2.995979210580881</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1958166024971591</v>
+        <v>0.5691880264284979</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>60.59378965525742</v>
+        <v>47.21608749573338</v>
       </c>
       <c r="C36" t="n">
-        <v>4.461326973988053</v>
+        <v>2.62790713009155</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1129257555234557</v>
+        <v>0.4744401093592391</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>60.67068558902923</v>
+        <v>47.60416042484564</v>
       </c>
       <c r="C37" t="n">
-        <v>6.363180767622028</v>
+        <v>5.739313250170197</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1945597308262477</v>
+        <v>0.8424123423958878</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>61.74740587478271</v>
+        <v>49.34469191643922</v>
       </c>
       <c r="C38" t="n">
-        <v>8.444311028057625</v>
+        <v>7.664094613157691</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2265750632482033</v>
+        <v>0.7663935726074347</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>62.11599335114501</v>
+        <v>49.65908855196219</v>
       </c>
       <c r="C39" t="n">
-        <v>5.48057779423368</v>
+        <v>5.899644030180284</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5414926915327349</v>
+        <v>0.6699558081458459</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>62.53046371780216</v>
+        <v>50.7230050865786</v>
       </c>
       <c r="C40" t="n">
-        <v>5.553320878645982</v>
+        <v>5.803548391683157</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07601214609857998</v>
+        <v>0.5988114634904502</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>64.38488130003896</v>
+        <v>54.21178607093759</v>
       </c>
       <c r="C41" t="n">
-        <v>7.497156166045146</v>
+        <v>4.956154329027915</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1705705173797434</v>
+        <v>0.7146003377038491</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>64.97412614927131</v>
+        <v>55.74850404702884</v>
       </c>
       <c r="C42" t="n">
-        <v>6.678339043907843</v>
+        <v>3.528097592827379</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4076685596591001</v>
+        <v>0.4588315675156596</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>65.02941094937904</v>
+        <v>58.44957369345386</v>
       </c>
       <c r="C43" t="n">
-        <v>3.00999482033305</v>
+        <v>7.210811298644916</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1232213815283077</v>
+        <v>0.7581691955676273</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>66.97137600708044</v>
+        <v>60.14409442043063</v>
       </c>
       <c r="C44" t="n">
-        <v>4.244702862308361</v>
+        <v>7.840228315861816</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5821226212373568</v>
+        <v>0.7811369341510174</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>72.38187165505794</v>
+        <v>60.30724993710545</v>
       </c>
       <c r="C45" t="n">
-        <v>7.586656728080796</v>
+        <v>6.167867675051744</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2597368116921737</v>
+        <v>0.6356133484366381</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>72.5691600056594</v>
+        <v>63.66848422183852</v>
       </c>
       <c r="C46" t="n">
-        <v>8.867825501798832</v>
+        <v>7.080550686794093</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6479264401783129</v>
+        <v>0.2350020873408501</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>74.44071987203546</v>
+        <v>66.76608104416796</v>
       </c>
       <c r="C47" t="n">
-        <v>5.555146840455219</v>
+        <v>5.34972229333688</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3411647123527994</v>
+        <v>0.539874398876771</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>74.4790495349439</v>
+        <v>69.53986120974791</v>
       </c>
       <c r="C48" t="n">
-        <v>9.262328151481684</v>
+        <v>8.179125219367217</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3033822861430812</v>
+        <v>0.6431927438960214</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>74.65667941680501</v>
+        <v>69.81748527331543</v>
       </c>
       <c r="C49" t="n">
-        <v>6.557104974286269</v>
+        <v>3.705529363014854</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3402363733773222</v>
+        <v>0.1749910638023167</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>78.62485389709488</v>
+        <v>72.04859277444831</v>
       </c>
       <c r="C50" t="n">
-        <v>9.624873934200524</v>
+        <v>7.436864957084602</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5278310334605067</v>
+        <v>0.7300699733760003</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83.69624022742809</v>
+        <v>76.12353685879624</v>
       </c>
       <c r="C51" t="n">
-        <v>4.733189282593644</v>
+        <v>4.506241233691332</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1460864210995281</v>
+        <v>0.7626794478801696</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>84.84323116229125</v>
+        <v>76.70978554460662</v>
       </c>
       <c r="C52" t="n">
-        <v>3.629118194528346</v>
+        <v>3.997235605461916</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3572225914007715</v>
+        <v>0.7496416425416778</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>87.00925656088145</v>
+        <v>77.05857018353711</v>
       </c>
       <c r="C53" t="n">
-        <v>6.454866436909132</v>
+        <v>6.290392578644001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2538911430202216</v>
+        <v>0.5427019548473698</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>88.94903600058562</v>
+        <v>78.39984561514854</v>
       </c>
       <c r="C54" t="n">
-        <v>3.056297542637582</v>
+        <v>4.473980890713594</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1451619773812805</v>
+        <v>0.5943271270065704</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>91.64872235165718</v>
+        <v>78.47587246877349</v>
       </c>
       <c r="C55" t="n">
-        <v>9.224679548561962</v>
+        <v>2.587438704591231</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5739286089450053</v>
+        <v>0.8066445593957717</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>96.00181747628278</v>
+        <v>78.80357509137781</v>
       </c>
       <c r="C56" t="n">
-        <v>5.321293718836886</v>
+        <v>2.445890147298472</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2658157535806016</v>
+        <v>0.3427389864343864</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,153 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>98.00187659929324</v>
+        <v>79.12059466182882</v>
       </c>
       <c r="C57" t="n">
-        <v>8.454270393119486</v>
+        <v>5.937740844124311</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2816035059356471</v>
+        <v>0.6532655772524482</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>80.72791339274384</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.83553724674939</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.3253029172779324</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>84.33025024973355</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.155515905017443</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.504307006067259</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>88.19724037068751</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7.927903183158886</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.6069506079480076</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>88.89511370022807</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.73724213554368</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.3058145734594823</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>89.763102968146</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.460911710339154</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5176506839751086</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>92.16975532985956</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4.385905742323472</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.601422052032637</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>96.7062391798861</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.717756753320336</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.7578386739169989</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>97.41297116665748</v>
+      </c>
+      <c r="C65" t="n">
+        <v>5.496958809094511</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.6427022769806511</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>98.01449985644851</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.622490803369615</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.2229765514957482</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>99.20463479035409</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.422020837435986</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5708743424287757</v>
       </c>
     </row>
   </sheetData>
